--- a/deterministic/me_vs_gary_statistics.xlsx
+++ b/deterministic/me_vs_gary_statistics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t xml:space="preserve">Susan’s data</t>
   </si>
@@ -131,19 +131,37 @@
     <t xml:space="preserve">L2 MSE</t>
   </si>
   <si>
+    <t xml:space="preserve">L2 MSE sd</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linf mean</t>
   </si>
   <si>
-    <t xml:space="preserve">AUC^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peak time^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peak height^2</t>
+    <t xml:space="preserve">Linf sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean |AUC error|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd |AUC error|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg |peak time error|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|peak time error| sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|peak height error| mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|peak height error| sd</t>
   </si>
   <si>
     <t xml:space="preserve">Rosen et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 spl/hr</t>
   </si>
   <si>
     <t xml:space="preserve">1 training</t>
@@ -159,11 +177,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -250,7 +269,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,6 +300,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1586,15 +1609,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,25 +1647,165 @@
       <c r="F1" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>0.0066834</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>0.0057252</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>0.76673</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>0.15998</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>1.4848</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0.63544</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0.017043</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>0.24407</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <v>0.17275</v>
+      </c>
+      <c r="K2" s="8" t="n">
+        <v>0.19321</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>41</v>
+      <c r="A3" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>0.0073097</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>0.0063732</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>0.31171</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>0.23752</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>0.40751</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>1.4845</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>0.69444</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>0.62099</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>0.19317</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>0.16456</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>0.0049352</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>0.0038501</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.21174</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>0.12204</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0.23207</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0.2602</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0.62963</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0.60042</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>0.099777</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>0.045388</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>0.0052326</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>0.0046388</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>0.22728</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>0.17327</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>0.22925</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0.29803</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>0.63889</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>0.59963</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>0.1061</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>0.11213</v>
       </c>
     </row>
   </sheetData>

--- a/deterministic/me_vs_gary_statistics.xlsx
+++ b/deterministic/me_vs_gary_statistics.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="real_alcohol_stats" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="artificial_alcohol_stats_test1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="artificial_alcohol_stats_test2" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="56">
   <si>
     <t xml:space="preserve">Susan’s data</t>
   </si>
@@ -171,18 +173,40 @@
   </si>
   <si>
     <t xml:space="preserve">8 training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda1 = 4e-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda2 = 1e-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input data scaled by 1e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.00E+00"/>
+    <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.000"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -269,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,6 +327,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1611,15 +1651,15 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.61"/>
@@ -1817,4 +1857,1046 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>6.4804E-005</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>1.9341E-005</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>2.9902</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>1.7942</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>2.1289</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>4.4227</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0.9465</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0.49353</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>2.9902</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>11.877</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>6.0276E-005</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1.9245E-005</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>2.8884</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>1.8148</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>2.0551</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>4.538</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0.95199</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0.48809</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>2.8884</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>12.036</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>6.0277E-005</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>1.9369E-005</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>2.8686</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>1.7646</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>2.0356</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>4.4788</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0.9465</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0.49353</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>2.8686</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>11.677</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>0.82064</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>1.1372</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>0.92245</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>1.1306</v>
+      </c>
+      <c r="F13" s="11" t="n">
+        <v>1.2302</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>1.0173</v>
+      </c>
+      <c r="H13" s="11" t="n">
+        <v>1.0003</v>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>0.76016</v>
+      </c>
+      <c r="J13" s="11" t="n">
+        <v>0.96217</v>
+      </c>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>1.0038</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>1.2466</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>1.2423</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>1.0529</v>
+      </c>
+      <c r="F14" s="11" t="n">
+        <v>1.0211</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>1.1848</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>1.0229</v>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>0.80802</v>
+      </c>
+      <c r="J14" s="11" t="n">
+        <v>1.2658</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>1.1603</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <v>1.1888</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>1.0615</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>1.0495</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <v>1.0034</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>1.0361</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <v>1.1546</v>
+      </c>
+      <c r="I15" s="11" t="n">
+        <v>0.98834</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <v>1.1237</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>1.0578</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>1.0688</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>1.0475</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <v>1.0161</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>1.0669</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>1.1414</v>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>1.0207</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>1.1082</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>0.29998</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <v>0.34267</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>0.33784</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>0.28388</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <v>0.21918</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <v>0.26055</v>
+      </c>
+      <c r="H19" s="11" t="n">
+        <v>0.37794</v>
+      </c>
+      <c r="I19" s="11" t="n">
+        <v>0.26351</v>
+      </c>
+      <c r="J19" s="11" t="n">
+        <v>0.28728</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>0.33925</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>0.28267</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>0.22332</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>0.25786</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <v>0.37558</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>0.26695</v>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>0.28795</v>
+      </c>
+      <c r="I20" s="11" t="n">
+        <v>0.29925</v>
+      </c>
+      <c r="J20" s="11" t="n">
+        <v>0.34147</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>0.30792</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>0.27174</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>0.31084</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>0.31737</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <v>0.30828</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>0.31579</v>
+      </c>
+      <c r="H21" s="11" t="n">
+        <v>0.29916</v>
+      </c>
+      <c r="I21" s="11" t="n">
+        <v>0.30483</v>
+      </c>
+      <c r="J21" s="11" t="n">
+        <v>0.31192</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>0.30778</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <v>0.30168</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>0.30526</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>0.30989</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>0.30952</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>0.31401</v>
+      </c>
+      <c r="H22" s="11" t="n">
+        <v>0.29146</v>
+      </c>
+      <c r="I22" s="11" t="n">
+        <v>0.30748</v>
+      </c>
+      <c r="J22" s="11" t="n">
+        <v>0.31489</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>6.4804E-005</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>1.9341E-005</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>2.9902</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>1.7942</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>2.1289</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>4.4227</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0.9465</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0.49353</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>2.9902</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>11.877</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>6.0276E-005</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1.9245E-005</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>2.8884</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>1.8148</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>2.0551</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>4.538</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0.95199</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0.48809</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>2.8884</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>12.036</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>6.0277E-005</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>1.9369E-005</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>2.8686</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>1.7646</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>2.0356</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>4.4788</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0.9465</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0.49353</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>2.8686</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>11.677</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>0.82064</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>1.1372</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>0.92245</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>1.1306</v>
+      </c>
+      <c r="F13" s="11" t="n">
+        <v>1.2302</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>1.0173</v>
+      </c>
+      <c r="H13" s="11" t="n">
+        <v>1.0003</v>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>0.76016</v>
+      </c>
+      <c r="J13" s="11" t="n">
+        <v>0.96217</v>
+      </c>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>1.0038</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>1.2466</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>1.2423</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>1.0529</v>
+      </c>
+      <c r="F14" s="11" t="n">
+        <v>1.0211</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>1.1848</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>1.0229</v>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>0.80802</v>
+      </c>
+      <c r="J14" s="11" t="n">
+        <v>1.2658</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>1.1603</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <v>1.1888</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>1.0615</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>1.0495</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <v>1.0034</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>1.0361</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <v>1.1546</v>
+      </c>
+      <c r="I15" s="11" t="n">
+        <v>0.98834</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <v>1.1237</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>1.0578</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>1.0688</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>1.0475</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <v>1.0161</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>1.0669</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>1.1414</v>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>1.0207</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>1.1082</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>0.29998</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <v>0.34267</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>0.33784</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>0.28388</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <v>0.21918</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <v>0.26055</v>
+      </c>
+      <c r="H19" s="11" t="n">
+        <v>0.37794</v>
+      </c>
+      <c r="I19" s="11" t="n">
+        <v>0.26351</v>
+      </c>
+      <c r="J19" s="11" t="n">
+        <v>0.28728</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>0.33925</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>0.28267</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>0.22332</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>0.25786</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <v>0.37558</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>0.26695</v>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>0.28795</v>
+      </c>
+      <c r="I20" s="11" t="n">
+        <v>0.29925</v>
+      </c>
+      <c r="J20" s="11" t="n">
+        <v>0.34147</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>0.30792</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>0.27174</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>0.31084</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>0.31737</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <v>0.30828</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>0.31579</v>
+      </c>
+      <c r="H21" s="11" t="n">
+        <v>0.29916</v>
+      </c>
+      <c r="I21" s="11" t="n">
+        <v>0.30483</v>
+      </c>
+      <c r="J21" s="11" t="n">
+        <v>0.31192</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>0.30778</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <v>0.30168</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>0.30526</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>0.30989</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>0.30952</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>0.31401</v>
+      </c>
+      <c r="H22" s="11" t="n">
+        <v>0.29146</v>
+      </c>
+      <c r="I22" s="11" t="n">
+        <v>0.30748</v>
+      </c>
+      <c r="J22" s="11" t="n">
+        <v>0.31489</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/deterministic/me_vs_gary_statistics.xlsx
+++ b/deterministic/me_vs_gary_statistics.xlsx
@@ -2388,7 +2388,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/deterministic/me_vs_gary_statistics.xlsx
+++ b/deterministic/me_vs_gary_statistics.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="real_alcohol_stats" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="artificial_alcohol_stats_test1" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="artificial_alcohol_stats_test2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="P_N8_M0" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="N_P2_M0" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="real_alcohol_stats" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="artificial_alcohol_stats_test1" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="artificial_alcohol_stats_test2" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="69">
+  <si>
+    <t xml:space="preserve">nSPLHR/error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2 MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linf mean error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean |AUC error|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg |peak time error|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|peak height error| mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M=0 (constant q1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda1 = 2e-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda2 = 1e-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input data scaled by 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trained on episode 1 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starting values (0.85,0.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q1=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q2=0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linf mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q1=1. N/episode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q2=0.3 N/episode</t>
+  </si>
   <si>
     <t xml:space="preserve">Susan’s data</t>
   </si>
@@ -130,31 +186,16 @@
     <t xml:space="preserve">method/error</t>
   </si>
   <si>
-    <t xml:space="preserve">L2 MSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">L2 MSE sd</t>
   </si>
   <si>
-    <t xml:space="preserve">Linf mean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Linf sd</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean |AUC error|</t>
-  </si>
-  <si>
     <t xml:space="preserve">sd |AUC error|</t>
   </si>
   <si>
-    <t xml:space="preserve">Avg |peak time error|</t>
-  </si>
-  <si>
     <t xml:space="preserve">|peak time error| sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|peak height error| mean</t>
   </si>
   <si>
     <t xml:space="preserve">|peak height error| sd</t>
@@ -197,16 +238,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
-    <numFmt numFmtId="169" formatCode="0.00E+00"/>
-    <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.00E+00"/>
+    <numFmt numFmtId="172" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -293,12 +335,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,7 +348,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,15 +356,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,7 +368,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,7 +384,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,6 +405,831 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.0894</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.0271</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.0199</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1042</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.0251</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.1077</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.0752</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.1458</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.0347</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0847</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1042</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1.0505</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1.0402</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1.1292</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>1.0968</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1.1242</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1.0327</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1.0898</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1.0628</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1.1364</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1.0729</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1.1773</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1.1276</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1.0896</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1.0376</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1.1176</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1.0733</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.3019</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0.3041</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0.3046</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>0.3009</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0.3022</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0.3053</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0.2993</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0.3023</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0.3028</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0.3025</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0.3043</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>0.3056</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.0334</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0894</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.0271</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.0192</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.0894</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.0141</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.0273</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.0188</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0872</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.0302</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.0183</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.0863</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1.1096</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1.0373</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>1.0555</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1.0505</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1.0402</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1.1292</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1.0968</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1.0663</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1.0296</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1.1398</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1.1006</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1.0665</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1.0387</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1.1111</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1.0548</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1.0321</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1.1312</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1.0494</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0.3015</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.3018</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0.3039</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0.3019</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0.3041</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0.3046</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>0.3035</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0.3024</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0.3036</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0.3046</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0.3036</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0.3058</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>0.3042</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0.3039</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0.3023</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0.3037</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0.3065</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -390,1246 +1261,1246 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>0.945630366128921</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.622016829625439</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4" t="n">
         <v>1.36060788829988</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4" t="n">
         <v>0.346622385211283</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>0.0051</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.0012</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4" t="n">
         <v>1.2852</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4" t="n">
         <v>0.2845</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>0.0898</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="4" t="n">
         <v>0.7619</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="4" t="n">
         <v>1.3517</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4" t="n">
         <v>0.3549</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" t="n">
         <v>0.4205</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="8" t="n">
         <v>2.9</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="4" t="n">
         <v>1.2408</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="4" t="n">
         <v>0.2885</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B8" s="8" t="n">
         <v>0.007</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="8" t="n">
         <v>0.0044</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="4" t="n">
         <v>1.3457</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="4" t="n">
         <v>0.3476</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>0.0048</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="4" t="n">
         <v>0.001</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="4" t="n">
         <v>1.2229</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="4" t="n">
         <v>0.171</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="n">
         <v>0.0046</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="4" t="n">
         <v>0.0009</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="4" t="n">
         <v>1.2254</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="4" t="n">
         <v>0.1246</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="n">
         <v>0.0044</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="4" t="n">
         <v>0.0004</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="4" t="n">
         <v>1.2436</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="4" t="n">
         <v>0.0457</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="D19" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B20" s="7" t="n">
         <v>12302.4654145443</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="7" t="n">
         <v>28066.3276118547</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="7" t="n">
         <v>120.442533302055</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="7" t="n">
         <v>259.706619192428</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="7" t="n">
         <v>780.555555555556</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="7" t="n">
         <v>801.539317674297</v>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="7" t="n">
         <v>2266.74749790677</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="7" t="n">
         <v>2615.67195519677</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="7" t="n">
         <v>12.4579854976319</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="7" t="n">
         <v>9.38397665791514</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="5"/>
+      <c r="L20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B21" s="7" t="n">
         <v>12583.5883790077</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="7" t="n">
         <v>24717.9010459302</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="7" t="n">
         <v>56.3170372473783</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="7" t="n">
         <v>67.4710097217896</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="7" t="n">
         <v>536.111111111111</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="7" t="n">
         <v>472.544824446434</v>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="7" t="n">
         <v>2826.6497164016</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="7" t="n">
         <v>3030.25642964513</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="7" t="n">
         <v>15.1039546033895</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="7" t="n">
         <v>9.73019015423137</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" s="7" t="n">
         <v>13280.0092404074</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="7" t="n">
         <v>20836.7521252529</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="7" t="n">
         <v>58.6226839286292</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="7" t="n">
         <v>66.1709170818482</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="7" t="n">
         <v>925</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="7" t="n">
         <v>934.24434705274</v>
       </c>
-      <c r="H22" s="5" t="n">
+      <c r="H22" s="7" t="n">
         <v>3112.16398078119</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="7" t="n">
         <v>3140.6189867615</v>
       </c>
-      <c r="J22" s="5" t="n">
+      <c r="J22" s="7" t="n">
         <v>16.1482854945237</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="7" t="n">
         <v>7.65095833557925</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B23" s="7" t="n">
         <v>6680.1368481452</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="7" t="n">
         <v>13512.0324295532</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="7" t="n">
         <v>52.8646236805274</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="7" t="n">
         <v>59.2137494880923</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="7" t="n">
         <v>436.111111111111</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="7" t="n">
         <v>481.065079912387</v>
       </c>
-      <c r="H23" s="5" t="n">
+      <c r="H23" s="7" t="n">
         <v>1779.05669644507</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="7" t="n">
         <v>1881.49170239105</v>
       </c>
-      <c r="J23" s="5" t="n">
+      <c r="J23" s="7" t="n">
         <v>11.7501585706785</v>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="K23" s="7" t="n">
         <v>6.83896010924126</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B24" s="7" t="n">
         <v>10614.7027081648</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="7" t="n">
         <v>18923.6274602993</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="7" t="n">
         <v>66.3964016933351</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="7" t="n">
         <v>86.8358046850068</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="7" t="n">
         <v>580.555555555556</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="7" t="n">
         <v>574.426042043515</v>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="H24" s="7" t="n">
         <v>2282.91659793614</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="7" t="n">
         <v>2458.48977526811</v>
       </c>
-      <c r="J24" s="5" t="n">
+      <c r="J24" s="7" t="n">
         <v>14.2497128401018</v>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K24" s="7" t="n">
         <v>6.56541234630234</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B25" s="7" t="n">
         <v>84111.0609451121</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="7" t="n">
         <v>147966.910489591</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="7" t="n">
         <v>146.730563853576</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="7" t="n">
         <v>153.380126947843</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="7" t="n">
         <v>1169.44444444444</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="7" t="n">
         <v>1460.08228459145</v>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="H25" s="7" t="n">
         <v>6595.9283418281</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="7" t="n">
         <v>9759.19352189787</v>
       </c>
-      <c r="J25" s="5" t="n">
+      <c r="J25" s="7" t="n">
         <v>19.4793929032983</v>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K25" s="7" t="n">
         <v>10.0233955375995</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B26" s="7" t="n">
         <v>102340.500494873</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="7" t="n">
         <v>214974.052026312</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="7" t="n">
         <v>236.168902806731</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="7" t="n">
         <v>530.26336254189</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="7" t="n">
         <v>969.444444444445</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="7" t="n">
         <v>1093.4305088929</v>
       </c>
-      <c r="H26" s="5" t="n">
+      <c r="H26" s="7" t="n">
         <v>7514.14109559996</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="7" t="n">
         <v>11725.3517169944</v>
       </c>
-      <c r="J26" s="5" t="n">
+      <c r="J26" s="7" t="n">
         <v>21.3342021499223</v>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K26" s="7" t="n">
         <v>15.2604554219103</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B27" s="7" t="n">
         <v>80502.1986312202</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="7" t="n">
         <v>169026.342030426</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="7" t="n">
         <v>141.055882508966</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="7" t="n">
         <v>229.734676769738</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="7" t="n">
         <v>1302.77777777778</v>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="7" t="n">
         <v>1395.88930236049</v>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="H27" s="7" t="n">
         <v>5939.91074255582</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="7" t="n">
         <v>6950.61010171078</v>
       </c>
-      <c r="J27" s="5" t="n">
+      <c r="J27" s="7" t="n">
         <v>21.3161052257246</v>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="K27" s="7" t="n">
         <v>11.2779512231118</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="5"/>
+      <c r="L27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
+      <c r="A30" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B31" s="7" t="n">
         <v>247207.697413956</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="7" t="n">
         <v>789574.215994144</v>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="7" t="n">
         <v>421.375674028555</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="7" t="n">
         <v>915.042538329965</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="7" t="n">
         <v>1201.38888888889</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="7" t="n">
         <v>1151.77365435259</v>
       </c>
-      <c r="H31" s="5" t="n">
+      <c r="H31" s="7" t="n">
         <v>11198.4582646936</v>
       </c>
-      <c r="I31" s="5" t="n">
+      <c r="I31" s="7" t="n">
         <v>17422.4310233355</v>
       </c>
-      <c r="J31" s="5" t="n">
+      <c r="J31" s="7" t="n">
         <v>25.4271937540533</v>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="K31" s="7" t="n">
         <v>15.8570985354804</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7" t="n">
         <v>106786.362685433</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="7" t="n">
         <v>238499.019981283</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="7" t="n">
         <v>153.422837552141</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="7" t="n">
         <v>274.913800328817</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="7" t="n">
         <v>1398.61111111111</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="7" t="n">
         <v>1356.1277782203</v>
       </c>
-      <c r="H32" s="5" t="n">
+      <c r="H32" s="7" t="n">
         <v>8221.25603986077</v>
       </c>
-      <c r="I32" s="5" t="n">
+      <c r="I32" s="7" t="n">
         <v>10830.5681912515</v>
       </c>
-      <c r="J32" s="5" t="n">
+      <c r="J32" s="7" t="n">
         <v>22.165936870077</v>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="K32" s="7" t="n">
         <v>12.8022393337698</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7" t="n">
         <v>133248.531580019</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="7" t="n">
         <v>216048.520339117</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="7" t="n">
         <v>157.489252135525</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="7" t="n">
         <v>216.799884893367</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="7" t="n">
         <v>1361.11111111111</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="7" t="n">
         <v>1220.5754306255</v>
       </c>
-      <c r="H33" s="5" t="n">
+      <c r="H33" s="7" t="n">
         <v>8444.74589495823</v>
       </c>
-      <c r="I33" s="5" t="n">
+      <c r="I33" s="7" t="n">
         <v>10642.6466941795</v>
       </c>
-      <c r="J33" s="5" t="n">
+      <c r="J33" s="7" t="n">
         <v>22.7118908316986</v>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="K33" s="7" t="n">
         <v>11.5472477607417</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" s="7" t="n">
         <v>171800.839297975</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="7" t="n">
         <v>550143.521338522</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D34" s="7" t="n">
         <v>147.489163039024</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="7" t="n">
         <v>223.106513306664</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="7" t="n">
         <v>1427.77777777778</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="7" t="n">
         <v>1667.49979177077</v>
       </c>
-      <c r="H34" s="5" t="n">
+      <c r="H34" s="7" t="n">
         <v>9137.872580904</v>
       </c>
-      <c r="I34" s="5" t="n">
+      <c r="I34" s="7" t="n">
         <v>12434.4856994982</v>
       </c>
-      <c r="J34" s="5" t="n">
+      <c r="J34" s="7" t="n">
         <v>23.4074531451501</v>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="K34" s="7" t="n">
         <v>13.8087253629588</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7" t="n">
         <v>134073.44358612</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="7" t="n">
         <v>227673.801575438</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="7" t="n">
         <v>161.279098071349</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="7" t="n">
         <v>197.4690809632</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="7" t="n">
         <v>1286.11111111111</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="7" t="n">
         <v>1277.82336449946</v>
       </c>
-      <c r="H35" s="5" t="n">
+      <c r="H35" s="7" t="n">
         <v>8609.54634116432</v>
       </c>
-      <c r="I35" s="5" t="n">
+      <c r="I35" s="7" t="n">
         <v>10728.9840879987</v>
       </c>
-      <c r="J35" s="5" t="n">
+      <c r="J35" s="7" t="n">
         <v>23.119507464231</v>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="K35" s="7" t="n">
         <v>12.4063960548807</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="n">
         <v>93636.1261086567</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="7" t="n">
         <v>245505.272681335</v>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="D36" s="7" t="n">
         <v>154.046184916553</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="7" t="n">
         <v>307.350006729187</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="7" t="n">
         <v>1281.8253968254</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="7" t="n">
         <v>1318.8978285506</v>
       </c>
-      <c r="H36" s="5" t="n">
+      <c r="H36" s="7" t="n">
         <v>7270.78367139029</v>
       </c>
-      <c r="I36" s="5" t="n">
+      <c r="I36" s="7" t="n">
         <v>10172.3053735149</v>
       </c>
-      <c r="J36" s="5" t="n">
+      <c r="J36" s="7" t="n">
         <v>21.3464068033994</v>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="K36" s="7" t="n">
         <v>13.0713313923697</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7" t="n">
         <v>100621.630749884</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="7" t="n">
         <v>244884.121545805</v>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="D37" s="7" t="n">
         <v>169.517099990323</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="7" t="n">
         <v>335.556303515748</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="7" t="n">
         <v>1198.77777777778</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="7" t="n">
         <v>1267.18399952479</v>
       </c>
-      <c r="H37" s="5" t="n">
+      <c r="H37" s="7" t="n">
         <v>7026.31706471259</v>
       </c>
-      <c r="I37" s="5" t="n">
+      <c r="I37" s="7" t="n">
         <v>9676.24275472826</v>
       </c>
-      <c r="J37" s="5" t="n">
+      <c r="J37" s="7" t="n">
         <v>21.3069303250588</v>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="K37" s="7" t="n">
         <v>12.876057755631</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7" t="n">
         <v>87541.0878043521</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="7" t="n">
         <v>182428.903793082</v>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="D38" s="7" t="n">
         <v>151.495282345543</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38" s="7" t="n">
         <v>274.613188903931</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="7" t="n">
         <v>1244.44444444444</v>
       </c>
-      <c r="G38" s="5" t="n">
+      <c r="G38" s="7" t="n">
         <v>1344.06770546357</v>
       </c>
-      <c r="H38" s="5" t="n">
+      <c r="H38" s="7" t="n">
         <v>6179.9466018323</v>
       </c>
-      <c r="I38" s="5" t="n">
+      <c r="I38" s="7" t="n">
         <v>7491.97865821893</v>
       </c>
-      <c r="J38" s="5" t="n">
+      <c r="J38" s="7" t="n">
         <v>21.4354420027489</v>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="K38" s="7" t="n">
         <v>11.9054740618645</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>33</v>
+      <c r="A40" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B41" s="7" t="n">
         <v>70291.3985369463</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="7" t="n">
         <v>133516.64023421</v>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="D41" s="7" t="n">
         <v>171.214182276606</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41" s="7" t="n">
         <v>199.401523480558</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="7" t="n">
         <v>18062.890625</v>
       </c>
-      <c r="G41" s="5" t="n">
+      <c r="G41" s="7" t="n">
         <v>7586.94575417118</v>
       </c>
-      <c r="H41" s="5" t="n">
+      <c r="H41" s="7" t="n">
         <v>36575.0518274981</v>
       </c>
-      <c r="I41" s="5" t="n">
+      <c r="I41" s="7" t="n">
         <v>40296.7203117594</v>
       </c>
-      <c r="J41" s="5" t="n">
+      <c r="J41" s="7" t="n">
         <v>37.1272763910336</v>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="K41" s="7" t="n">
         <v>18.1166840563042</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B42" s="7" t="n">
         <v>69187.1082524718</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" s="7" t="n">
         <v>136785.324889854</v>
       </c>
-      <c r="D42" s="5" t="n">
+      <c r="D42" s="7" t="n">
         <v>98.380900119685</v>
       </c>
-      <c r="E42" s="5" t="n">
+      <c r="E42" s="7" t="n">
         <v>108.600767131266</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="7" t="n">
         <v>1123.4375</v>
       </c>
-      <c r="G42" s="5" t="n">
+      <c r="G42" s="7" t="n">
         <v>1174.8680692566</v>
       </c>
-      <c r="H42" s="5" t="n">
+      <c r="H42" s="7" t="n">
         <v>6743.89535232878</v>
       </c>
-      <c r="I42" s="5" t="n">
+      <c r="I42" s="7" t="n">
         <v>9512.72429803676</v>
       </c>
-      <c r="J42" s="5" t="n">
+      <c r="J42" s="7" t="n">
         <v>21.229174947456</v>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="K42" s="7" t="n">
         <v>12.8219771325816</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B43" s="7" t="n">
         <v>104715.35413187</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="7" t="n">
         <v>194317.131309334</v>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="D43" s="7" t="n">
         <v>128.403398113587</v>
       </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43" s="7" t="n">
         <v>135.939600555373</v>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="7" t="n">
         <v>1150</v>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="G43" s="7" t="n">
         <v>1110.44821495432</v>
       </c>
-      <c r="H43" s="5" t="n">
+      <c r="H43" s="7" t="n">
         <v>7337.51732410723</v>
       </c>
-      <c r="I43" s="5" t="n">
+      <c r="I43" s="7" t="n">
         <v>10438.4025124445</v>
       </c>
-      <c r="J43" s="5" t="n">
+      <c r="J43" s="7" t="n">
         <v>21.807726991023</v>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="K43" s="7" t="n">
         <v>11.6980603213924</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B44" s="7" t="n">
         <v>74521.8795151229</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" s="7" t="n">
         <v>137379.287389052</v>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="D44" s="7" t="n">
         <v>104.390121437672</v>
       </c>
-      <c r="E44" s="5" t="n">
+      <c r="E44" s="7" t="n">
         <v>113.176114069745</v>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="7" t="n">
         <v>1057.8125</v>
       </c>
-      <c r="G44" s="5" t="n">
+      <c r="G44" s="7" t="n">
         <v>1096.53924393615</v>
       </c>
-      <c r="H44" s="5" t="n">
+      <c r="H44" s="7" t="n">
         <v>7060.45130532928</v>
       </c>
-      <c r="I44" s="5" t="n">
+      <c r="I44" s="7" t="n">
         <v>9367.80136198212</v>
       </c>
-      <c r="J44" s="5" t="n">
+      <c r="J44" s="7" t="n">
         <v>22.3147708241087</v>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="K44" s="7" t="n">
         <v>13.4998949101185</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B45" s="7" t="n">
         <v>102402.458403051</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" s="7" t="n">
         <v>193783.17476122</v>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="D45" s="7" t="n">
         <v>138.20366402254</v>
       </c>
-      <c r="E45" s="5" t="n">
+      <c r="E45" s="7" t="n">
         <v>143.570204196567</v>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="7" t="n">
         <v>1035.9375</v>
       </c>
-      <c r="G45" s="5" t="n">
+      <c r="G45" s="7" t="n">
         <v>1039.47746144741</v>
       </c>
-      <c r="H45" s="5" t="n">
+      <c r="H45" s="7" t="n">
         <v>7360.88660693024</v>
       </c>
-      <c r="I45" s="5" t="n">
+      <c r="I45" s="7" t="n">
         <v>10197.9494091791</v>
       </c>
-      <c r="J45" s="5" t="n">
+      <c r="J45" s="7" t="n">
         <v>22.1612409171822</v>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="K45" s="7" t="n">
         <v>12.4735288538813</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B46" s="7" t="n">
         <v>41609.1466853224</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" s="7" t="n">
         <v>79441.139103425</v>
       </c>
-      <c r="D46" s="5" t="n">
+      <c r="D46" s="7" t="n">
         <v>80.9543154958561</v>
       </c>
-      <c r="E46" s="5" t="n">
+      <c r="E46" s="7" t="n">
         <v>80.6925562854167</v>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="7" t="n">
         <v>992.053571428571</v>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="G46" s="7" t="n">
         <v>1095.12064472847</v>
       </c>
-      <c r="H46" s="5" t="n">
+      <c r="H46" s="7" t="n">
         <v>5660.36285518654</v>
       </c>
-      <c r="I46" s="5" t="n">
+      <c r="I46" s="7" t="n">
         <v>7892.2656552583</v>
       </c>
-      <c r="J46" s="5" t="n">
+      <c r="J46" s="7" t="n">
         <v>20.2491550358278</v>
       </c>
-      <c r="K46" s="5" t="n">
+      <c r="K46" s="7" t="n">
         <v>12.5703840313582</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B47" s="7" t="n">
         <v>35680.674704701</v>
       </c>
-      <c r="C47" s="5" t="n">
+      <c r="C47" s="7" t="n">
         <v>66409.1376115097</v>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="D47" s="7" t="n">
         <v>79.9045221830511</v>
       </c>
-      <c r="E47" s="5" t="n">
+      <c r="E47" s="7" t="n">
         <v>80.3332621719036</v>
       </c>
-      <c r="F47" s="5" t="n">
+      <c r="F47" s="7" t="n">
         <v>898.625</v>
       </c>
-      <c r="G47" s="5" t="n">
+      <c r="G47" s="7" t="n">
         <v>997.516302196685</v>
       </c>
-      <c r="H47" s="5" t="n">
+      <c r="H47" s="7" t="n">
         <v>5235.28897805196</v>
       </c>
-      <c r="I47" s="5" t="n">
+      <c r="I47" s="7" t="n">
         <v>7128.53568523458</v>
       </c>
-      <c r="J47" s="5" t="n">
+      <c r="J47" s="7" t="n">
         <v>19.8770871630995</v>
       </c>
-      <c r="K47" s="5" t="n">
+      <c r="K47" s="7" t="n">
         <v>12.2704074319901</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B48" s="7" t="n">
         <v>29796.0706072076</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" s="7" t="n">
         <v>51298.0718008574</v>
       </c>
-      <c r="D48" s="5" t="n">
+      <c r="D48" s="7" t="n">
         <v>65.2091295223675</v>
       </c>
-      <c r="E48" s="5" t="n">
+      <c r="E48" s="7" t="n">
         <v>69.1847220066896</v>
       </c>
-      <c r="F48" s="5" t="n">
+      <c r="F48" s="7" t="n">
         <v>950</v>
       </c>
-      <c r="G48" s="5" t="n">
+      <c r="G48" s="7" t="n">
         <v>1115.01299017275</v>
       </c>
-      <c r="H48" s="5" t="n">
+      <c r="H48" s="7" t="n">
         <v>4633.77099689416</v>
       </c>
-      <c r="I48" s="5" t="n">
+      <c r="I48" s="7" t="n">
         <v>5941.61233679168</v>
       </c>
-      <c r="J48" s="5" t="n">
+      <c r="J48" s="7" t="n">
         <v>19.9212098912706</v>
       </c>
-      <c r="K48" s="5" t="n">
+      <c r="K48" s="7" t="n">
         <v>11.6353840084046</v>
       </c>
     </row>
@@ -1644,7 +2515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1670,181 +2541,181 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="8" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10" t="n">
         <v>0.0066834</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="10" t="n">
         <v>0.0057252</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="10" t="n">
         <v>0.76673</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="10" t="n">
         <v>0.15998</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="10" t="n">
         <v>1.4848</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="10" t="n">
         <v>0.63544</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="10" t="n">
         <v>0.017043</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="10" t="n">
         <v>0.24407</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2" s="10" t="n">
         <v>0.17275</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="10" t="n">
         <v>0.19321</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
+      <c r="A3" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="B4" s="10" t="n">
         <v>0.0073097</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="10" t="n">
         <v>0.0063732</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="10" t="n">
         <v>0.31171</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="10" t="n">
         <v>0.23752</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="10" t="n">
         <v>0.40751</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="10" t="n">
         <v>1.4845</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="10" t="n">
         <v>0.69444</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="10" t="n">
         <v>0.62099</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="10" t="n">
         <v>0.19317</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="10" t="n">
         <v>0.16456</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="8" t="n">
+        <v>61</v>
+      </c>
+      <c r="B5" s="10" t="n">
         <v>0.0049352</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="10" t="n">
         <v>0.0038501</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="10" t="n">
         <v>0.21174</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="10" t="n">
         <v>0.12204</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="10" t="n">
         <v>0.23207</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="10" t="n">
         <v>0.2602</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="10" t="n">
         <v>0.62963</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="10" t="n">
         <v>0.60042</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="10" t="n">
         <v>0.099777</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="10" t="n">
         <v>0.045388</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="8" t="n">
+        <v>62</v>
+      </c>
+      <c r="B6" s="10" t="n">
         <v>0.0052326</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="10" t="n">
         <v>0.0046388</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="10" t="n">
         <v>0.22728</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="10" t="n">
         <v>0.17327</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="10" t="n">
         <v>0.22925</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="10" t="n">
         <v>0.29803</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="10" t="n">
         <v>0.63889</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="10" t="n">
         <v>0.59963</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="10" t="n">
         <v>0.1061</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="10" t="n">
         <v>0.11213</v>
       </c>
     </row>
@@ -1859,7 +2730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1885,172 +2756,172 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2" s="11" t="n">
         <v>6.4804E-005</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="11" t="n">
         <v>1.9341E-005</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="11" t="n">
         <v>2.9902</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="11" t="n">
         <v>1.7942</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="11" t="n">
         <v>2.1289</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="11" t="n">
         <v>4.4227</v>
       </c>
-      <c r="H2" s="9" t="n">
+      <c r="H2" s="11" t="n">
         <v>0.9465</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="I2" s="11" t="n">
         <v>0.49353</v>
       </c>
-      <c r="J2" s="9" t="n">
+      <c r="J2" s="11" t="n">
         <v>2.9902</v>
       </c>
-      <c r="K2" s="9" t="n">
+      <c r="K2" s="11" t="n">
         <v>11.877</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="B3" s="11" t="n">
         <v>6.0276E-005</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="11" t="n">
         <v>1.9245E-005</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="11" t="n">
         <v>2.8884</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="11" t="n">
         <v>1.8148</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="11" t="n">
         <v>2.0551</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="11" t="n">
         <v>4.538</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="11" t="n">
         <v>0.95199</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="11" t="n">
         <v>0.48809</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="11" t="n">
         <v>2.8884</v>
       </c>
-      <c r="K3" s="9" t="n">
+      <c r="K3" s="11" t="n">
         <v>12.036</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="B4" s="11" t="n">
         <v>6.0277E-005</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="11" t="n">
         <v>1.9369E-005</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="11" t="n">
         <v>2.8686</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>1.7646</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="11" t="n">
         <v>2.0356</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="11" t="n">
         <v>4.4788</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="11" t="n">
         <v>0.9465</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="11" t="n">
         <v>0.49353</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="11" t="n">
         <v>2.8686</v>
       </c>
-      <c r="K4" s="9" t="n">
+      <c r="K4" s="11" t="n">
         <v>11.677</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -2081,137 +2952,137 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="11" t="n">
+      <c r="A13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>0.82064</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="2" t="n">
         <v>1.1372</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="2" t="n">
         <v>0.92245</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="2" t="n">
         <v>1.1306</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="2" t="n">
         <v>1.2302</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="2" t="n">
         <v>1.0173</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="2" t="n">
         <v>1.0003</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="2" t="n">
         <v>0.76016</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="2" t="n">
         <v>0.96217</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>1.0038</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="2" t="n">
         <v>1.2466</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="2" t="n">
         <v>1.2423</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="2" t="n">
         <v>1.0529</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="2" t="n">
         <v>1.0211</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="2" t="n">
         <v>1.1848</v>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="2" t="n">
         <v>1.0229</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="I14" s="2" t="n">
         <v>0.80802</v>
       </c>
-      <c r="J14" s="11" t="n">
+      <c r="J14" s="2" t="n">
         <v>1.2658</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="11" t="n">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>1.1603</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="2" t="n">
         <v>1.1888</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="2" t="n">
         <v>1.0615</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="2" t="n">
         <v>1.0495</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="2" t="n">
         <v>1.0034</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="2" t="n">
         <v>1.0361</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="2" t="n">
         <v>1.1546</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="2" t="n">
         <v>0.98834</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="2" t="n">
         <v>1.1237</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="11" t="n">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>1.0578</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="2" t="n">
         <v>1.0688</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="2" t="n">
         <v>1.0475</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="2" t="n">
         <v>1.028</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="2" t="n">
         <v>1.0161</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="2" t="n">
         <v>1.0669</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="2" t="n">
         <v>1.1414</v>
       </c>
-      <c r="I16" s="11" t="n">
+      <c r="I16" s="2" t="n">
         <v>1.0207</v>
       </c>
-      <c r="J16" s="11" t="n">
+      <c r="J16" s="2" t="n">
         <v>1.1082</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -2242,130 +3113,130 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="11" t="n">
+      <c r="A19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>0.29998</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="2" t="n">
         <v>0.34267</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="2" t="n">
         <v>0.33784</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="2" t="n">
         <v>0.28388</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="2" t="n">
         <v>0.21918</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="2" t="n">
         <v>0.26055</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="H19" s="2" t="n">
         <v>0.37794</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="2" t="n">
         <v>0.26351</v>
       </c>
-      <c r="J19" s="11" t="n">
+      <c r="J19" s="2" t="n">
         <v>0.28728</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>0.33925</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="2" t="n">
         <v>0.28267</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="2" t="n">
         <v>0.22332</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E20" s="2" t="n">
         <v>0.25786</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="2" t="n">
         <v>0.37558</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="2" t="n">
         <v>0.26695</v>
       </c>
-      <c r="H20" s="11" t="n">
+      <c r="H20" s="2" t="n">
         <v>0.28795</v>
       </c>
-      <c r="I20" s="11" t="n">
+      <c r="I20" s="2" t="n">
         <v>0.29925</v>
       </c>
-      <c r="J20" s="11" t="n">
+      <c r="J20" s="2" t="n">
         <v>0.34147</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="11" t="n">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>0.30792</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="2" t="n">
         <v>0.27174</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="2" t="n">
         <v>0.31084</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="2" t="n">
         <v>0.31737</v>
       </c>
-      <c r="F21" s="11" t="n">
+      <c r="F21" s="2" t="n">
         <v>0.30828</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="2" t="n">
         <v>0.31579</v>
       </c>
-      <c r="H21" s="11" t="n">
+      <c r="H21" s="2" t="n">
         <v>0.29916</v>
       </c>
-      <c r="I21" s="11" t="n">
+      <c r="I21" s="2" t="n">
         <v>0.30483</v>
       </c>
-      <c r="J21" s="11" t="n">
+      <c r="J21" s="2" t="n">
         <v>0.31192</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="11" t="n">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>0.30778</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="2" t="n">
         <v>0.30168</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="2" t="n">
         <v>0.30526</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E22" s="2" t="n">
         <v>0.30989</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="2" t="n">
         <v>0.30952</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="2" t="n">
         <v>0.31401</v>
       </c>
-      <c r="H22" s="11" t="n">
+      <c r="H22" s="2" t="n">
         <v>0.29146</v>
       </c>
-      <c r="I22" s="11" t="n">
+      <c r="I22" s="2" t="n">
         <v>0.30748</v>
       </c>
-      <c r="J22" s="11" t="n">
+      <c r="J22" s="2" t="n">
         <v>0.31489</v>
       </c>
     </row>
@@ -2380,15 +3251,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2406,172 +3277,172 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2" s="11" t="n">
         <v>6.4804E-005</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="11" t="n">
         <v>1.9341E-005</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="11" t="n">
         <v>2.9902</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="11" t="n">
         <v>1.7942</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="11" t="n">
         <v>2.1289</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="11" t="n">
         <v>4.4227</v>
       </c>
-      <c r="H2" s="9" t="n">
+      <c r="H2" s="11" t="n">
         <v>0.9465</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="I2" s="11" t="n">
         <v>0.49353</v>
       </c>
-      <c r="J2" s="9" t="n">
+      <c r="J2" s="11" t="n">
         <v>2.9902</v>
       </c>
-      <c r="K2" s="9" t="n">
+      <c r="K2" s="11" t="n">
         <v>11.877</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="B3" s="11" t="n">
         <v>6.0276E-005</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="11" t="n">
         <v>1.9245E-005</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="11" t="n">
         <v>2.8884</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="11" t="n">
         <v>1.8148</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="11" t="n">
         <v>2.0551</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="11" t="n">
         <v>4.538</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="11" t="n">
         <v>0.95199</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="11" t="n">
         <v>0.48809</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="11" t="n">
         <v>2.8884</v>
       </c>
-      <c r="K3" s="9" t="n">
+      <c r="K3" s="11" t="n">
         <v>12.036</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="B4" s="11" t="n">
         <v>6.0277E-005</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="11" t="n">
         <v>1.9369E-005</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="11" t="n">
         <v>2.8686</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>1.7646</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="11" t="n">
         <v>2.0356</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="11" t="n">
         <v>4.4788</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="11" t="n">
         <v>0.9465</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="11" t="n">
         <v>0.49353</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="11" t="n">
         <v>2.8686</v>
       </c>
-      <c r="K4" s="9" t="n">
+      <c r="K4" s="11" t="n">
         <v>11.677</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -2602,137 +3473,137 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="11" t="n">
+      <c r="A13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>0.82064</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="2" t="n">
         <v>1.1372</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="2" t="n">
         <v>0.92245</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="2" t="n">
         <v>1.1306</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="2" t="n">
         <v>1.2302</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="2" t="n">
         <v>1.0173</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="2" t="n">
         <v>1.0003</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="2" t="n">
         <v>0.76016</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="2" t="n">
         <v>0.96217</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>1.0038</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="2" t="n">
         <v>1.2466</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="2" t="n">
         <v>1.2423</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="2" t="n">
         <v>1.0529</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="2" t="n">
         <v>1.0211</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="2" t="n">
         <v>1.1848</v>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="2" t="n">
         <v>1.0229</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="I14" s="2" t="n">
         <v>0.80802</v>
       </c>
-      <c r="J14" s="11" t="n">
+      <c r="J14" s="2" t="n">
         <v>1.2658</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="11" t="n">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>1.1603</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="2" t="n">
         <v>1.1888</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="2" t="n">
         <v>1.0615</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="2" t="n">
         <v>1.0495</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="2" t="n">
         <v>1.0034</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="2" t="n">
         <v>1.0361</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="2" t="n">
         <v>1.1546</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="2" t="n">
         <v>0.98834</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="2" t="n">
         <v>1.1237</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="11" t="n">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>1.0578</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="2" t="n">
         <v>1.0688</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="2" t="n">
         <v>1.0475</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="2" t="n">
         <v>1.028</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="2" t="n">
         <v>1.0161</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="2" t="n">
         <v>1.0669</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="2" t="n">
         <v>1.1414</v>
       </c>
-      <c r="I16" s="11" t="n">
+      <c r="I16" s="2" t="n">
         <v>1.0207</v>
       </c>
-      <c r="J16" s="11" t="n">
+      <c r="J16" s="2" t="n">
         <v>1.1082</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -2763,130 +3634,130 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="11" t="n">
+      <c r="A19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>0.29998</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="2" t="n">
         <v>0.34267</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="2" t="n">
         <v>0.33784</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="2" t="n">
         <v>0.28388</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="2" t="n">
         <v>0.21918</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="2" t="n">
         <v>0.26055</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="H19" s="2" t="n">
         <v>0.37794</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="2" t="n">
         <v>0.26351</v>
       </c>
-      <c r="J19" s="11" t="n">
+      <c r="J19" s="2" t="n">
         <v>0.28728</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>0.33925</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="2" t="n">
         <v>0.28267</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="2" t="n">
         <v>0.22332</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E20" s="2" t="n">
         <v>0.25786</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="2" t="n">
         <v>0.37558</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="2" t="n">
         <v>0.26695</v>
       </c>
-      <c r="H20" s="11" t="n">
+      <c r="H20" s="2" t="n">
         <v>0.28795</v>
       </c>
-      <c r="I20" s="11" t="n">
+      <c r="I20" s="2" t="n">
         <v>0.29925</v>
       </c>
-      <c r="J20" s="11" t="n">
+      <c r="J20" s="2" t="n">
         <v>0.34147</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="11" t="n">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>0.30792</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="2" t="n">
         <v>0.27174</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="2" t="n">
         <v>0.31084</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="2" t="n">
         <v>0.31737</v>
       </c>
-      <c r="F21" s="11" t="n">
+      <c r="F21" s="2" t="n">
         <v>0.30828</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="2" t="n">
         <v>0.31579</v>
       </c>
-      <c r="H21" s="11" t="n">
+      <c r="H21" s="2" t="n">
         <v>0.29916</v>
       </c>
-      <c r="I21" s="11" t="n">
+      <c r="I21" s="2" t="n">
         <v>0.30483</v>
       </c>
-      <c r="J21" s="11" t="n">
+      <c r="J21" s="2" t="n">
         <v>0.31192</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="11" t="n">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>0.30778</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="2" t="n">
         <v>0.30168</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="2" t="n">
         <v>0.30526</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E22" s="2" t="n">
         <v>0.30989</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="2" t="n">
         <v>0.30952</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="2" t="n">
         <v>0.31401</v>
       </c>
-      <c r="H22" s="11" t="n">
+      <c r="H22" s="2" t="n">
         <v>0.29146</v>
       </c>
-      <c r="I22" s="11" t="n">
+      <c r="I22" s="2" t="n">
         <v>0.30748</v>
       </c>
-      <c r="J22" s="11" t="n">
+      <c r="J22" s="2" t="n">
         <v>0.31489</v>
       </c>
     </row>

--- a/deterministic/me_vs_gary_statistics.xlsx
+++ b/deterministic/me_vs_gary_statistics.xlsx
@@ -8,12 +8,13 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="P_N8_M0" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="N_P2_M0" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="real_alcohol_stats" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="artificial_alcohol_stats_test1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="artificial_alcohol_stats_test2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="M_N8_P2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="P_N8_M0" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="N_P2_M0" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="real_alcohol_stats" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="artificial_alcohol_stats_test1" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="artificial_alcohol_stats_test2" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,44 +26,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="72">
+  <si>
+    <t xml:space="preserve">M/error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2 MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linf mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean |AUC error|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg |peak time error|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|peak height error| mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda1 = 2e-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda2 = 1e-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda3 = 3e-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input data scaled by 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trained on episode 1 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starting values (0.85,0.5)</t>
+  </si>
   <si>
     <t xml:space="preserve">nSPLHR/error</t>
   </si>
   <si>
-    <t xml:space="preserve">L2 MSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Linf mean error</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean |AUC error|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg |peak time error|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|peak height error| mean</t>
-  </si>
-  <si>
     <t xml:space="preserve">M=0 (constant q1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lambda1 = 2e-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lambda2 = 1e-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input data scaled by 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trained on episode 1 only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">starting values (0.85,0.5)</t>
-  </si>
-  <si>
     <t xml:space="preserve">q1=1</t>
   </si>
   <si>
@@ -70,9 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">N/error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linf mean</t>
   </si>
   <si>
     <t xml:space="preserve">q1=1. N/episode</t>
@@ -409,10 +419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -451,42 +461,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.0194</v>
+        <v>0.0427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.0894</v>
+        <v>0.1842</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.016</v>
+        <v>0.0668</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.3125</v>
+        <v>2.9167</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.0271</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.0199</v>
+        <v>0.0802</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.0927</v>
+        <v>0.2047</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.0288</v>
+        <v>0.4625</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.1042</v>
+        <v>1.4792</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.024</v>
+        <v>0.1705</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,39 +504,39 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.0251</v>
+        <v>0.0257</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.1077</v>
+        <v>0.116</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.0752</v>
+        <v>0.0642</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.1458</v>
+        <v>2.6875</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.0347</v>
+        <v>0.0755</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.0197</v>
+        <v>0.0155</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.0847</v>
+        <v>0.0676</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.0205</v>
+        <v>0.0275</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.1042</v>
+        <v>0.1667</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.027</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,222 +576,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>1.0505</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>1.0402</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>1.1292</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>1.0968</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>1.1242</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>1.0327</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>1.0898</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>1.0628</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>1.1364</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>1.0729</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>1.1773</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>1.1276</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>1.0896</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>1.0376</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>1.1176</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>1.0733</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0.3019</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0.3041</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0.3046</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>0.3009</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>0.3022</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>0.3053</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>0.2993</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0.3023</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>0.3028</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>0.3025</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>0.3043</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0.3056</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -799,10 +597,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -821,13 +619,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
@@ -841,107 +639,94 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.0185</v>
+        <v>0.0194</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.085</v>
+        <v>0.0894</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.027</v>
+        <v>0.016</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.3125</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.0334</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.0194</v>
+        <v>0.0199</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.0894</v>
+        <v>0.0927</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.016</v>
+        <v>0.0288</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.3125</v>
+        <v>0.1042</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.0271</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.0192</v>
+        <v>0.0251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.0894</v>
+        <v>0.1077</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.0141</v>
+        <v>0.0752</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.3125</v>
+        <v>0.1458</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.0273</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.0188</v>
+        <v>0.0197</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.0872</v>
+        <v>0.0847</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.0203</v>
+        <v>0.0205</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.3125</v>
+        <v>0.1042</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.0302</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>0.0183</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0.0863</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0.0157</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.025</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,17 +741,17 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,19 +773,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.1096</v>
+        <v>1.0505</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1.0373</v>
+        <v>1.0402</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.128</v>
+        <v>1.1292</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1.0555</v>
+        <v>1.0968</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1010,19 +795,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.0505</v>
+        <v>1.1242</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1.0402</v>
+        <v>1.0327</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.1292</v>
+        <v>1.0898</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1.0968</v>
+        <v>1.0628</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1032,19 +817,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.0663</v>
+        <v>1.1364</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1.0296</v>
+        <v>1.0729</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.1398</v>
+        <v>1.1773</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.1006</v>
+        <v>1.1276</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1054,19 +839,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.0665</v>
+        <v>1.0896</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1.0387</v>
+        <v>1.0376</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.074</v>
+        <v>1.1176</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1.1111</v>
+        <v>1.0733</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1075,21 +860,10 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>1.0548</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>1.0321</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>1.1312</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>1.0494</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1115,19 +889,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.3015</v>
+        <v>0.304</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.3018</v>
+        <v>0.3019</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3039</v>
+        <v>0.3041</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.306</v>
+        <v>0.3046</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1136,19 +910,19 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.304</v>
+        <v>0.3009</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.3019</v>
+        <v>0.3022</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3041</v>
+        <v>0.3053</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.3046</v>
+        <v>0.306</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1157,19 +931,19 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.3035</v>
+        <v>0.3</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.3024</v>
+        <v>0.2993</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3036</v>
+        <v>0.3023</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.3046</v>
+        <v>0.3028</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1178,45 +952,24 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.3036</v>
+        <v>0.3025</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0.302</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.3058</v>
+        <v>0.3043</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.3042</v>
+        <v>0.3056</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>0.3039</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>0.3023</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0.3037</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0.3065</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1230,6 +983,441 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.0334</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0894</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.0271</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.0192</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.0894</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.0141</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.0273</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.0188</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0872</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.0302</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.0183</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.0863</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1.1096</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1.0373</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>1.0555</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1.0505</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1.0402</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1.1292</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1.0968</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1.0663</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1.0296</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1.1398</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1.1006</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1.0665</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1.0387</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1.1111</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1.0548</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1.0321</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1.1312</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1.0494</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0.3015</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.3018</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0.3039</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0.3019</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0.3041</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0.3046</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>0.3035</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0.3024</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0.3036</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0.3046</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0.3036</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0.3058</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>0.3042</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0.3039</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0.3023</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0.3037</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0.3065</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1261,18 +1449,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1283,27 +1471,27 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>0.945630366128921</v>
@@ -1320,7 +1508,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1333,7 +1521,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>0.0051</v>
@@ -1360,7 +1548,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.0898</v>
@@ -1375,7 +1563,7 @@
         <v>0.3549</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -1389,7 +1577,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>0.4205</v>
@@ -1406,7 +1594,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1418,7 +1606,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>0.007</v>
@@ -1445,7 +1633,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>0.0048</v>
@@ -1472,7 +1660,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>0.0046</v>
@@ -1499,7 +1687,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>0.0044</v>
@@ -1528,66 +1716,66 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>12302.4654145443</v>
@@ -1620,13 +1808,13 @@
         <v>9.38397665791514</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>12583.5883790077</v>
@@ -1659,12 +1847,12 @@
         <v>9.73019015423137</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>13280.0092404074</v>
@@ -1697,12 +1885,12 @@
         <v>7.65095833557925</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>6680.1368481452</v>
@@ -1735,12 +1923,12 @@
         <v>6.83896010924126</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>10614.7027081648</v>
@@ -1773,12 +1961,12 @@
         <v>6.56541234630234</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>84111.0609451121</v>
@@ -1811,12 +1999,12 @@
         <v>10.0233955375995</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>102340.500494873</v>
@@ -1849,12 +2037,12 @@
         <v>15.2604554219103</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>80502.1986312202</v>
@@ -1887,7 +2075,7 @@
         <v>11.2779512231118</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7"/>
     </row>
@@ -1901,42 +2089,42 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>247207.697413956</v>
@@ -1972,7 +2160,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>106786.362685433</v>
@@ -2007,7 +2195,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>133248.531580019</v>
@@ -2042,7 +2230,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34" s="7" t="n">
         <v>171800.839297975</v>
@@ -2077,7 +2265,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35" s="7" t="n">
         <v>134073.44358612</v>
@@ -2112,7 +2300,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>93636.1261086567</v>
@@ -2147,7 +2335,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>100621.630749884</v>
@@ -2182,7 +2370,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>87541.0878043521</v>
@@ -2219,12 +2407,12 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>70291.3985369463</v>
@@ -2261,7 +2449,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>69187.1082524718</v>
@@ -2296,7 +2484,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>104715.35413187</v>
@@ -2331,7 +2519,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>74521.8795151229</v>
@@ -2366,7 +2554,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>102402.458403051</v>
@@ -2401,7 +2589,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B46" s="7" t="n">
         <v>41609.1466853224</v>
@@ -2436,7 +2624,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>35680.674704701</v>
@@ -2471,7 +2659,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>29796.0706072076</v>
@@ -2515,7 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2541,42 +2729,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>0.0066834</v>
@@ -2611,12 +2799,12 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0.0073097</v>
@@ -2651,7 +2839,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0.0049352</v>
@@ -2686,7 +2874,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>0.0052326</v>
@@ -2730,7 +2918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2756,42 +2944,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" s="11" t="n">
         <v>6.4804E-005</v>
@@ -2826,7 +3014,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3" s="11" t="n">
         <v>6.0276E-005</v>
@@ -2861,7 +3049,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="11" t="n">
         <v>6.0277E-005</v>
@@ -2896,32 +3084,32 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -2953,7 +3141,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.82064</v>
@@ -2986,7 +3174,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1.0038</v>
@@ -3018,7 +3206,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1.1603</v>
@@ -3050,7 +3238,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1.0578</v>
@@ -3082,7 +3270,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -3114,7 +3302,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.29998</v>
@@ -3146,7 +3334,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.33925</v>
@@ -3178,7 +3366,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.30792</v>
@@ -3210,7 +3398,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.30778</v>
@@ -3251,7 +3439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3277,42 +3465,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" s="11" t="n">
         <v>6.4804E-005</v>
@@ -3347,7 +3535,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3" s="11" t="n">
         <v>6.0276E-005</v>
@@ -3382,7 +3570,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="11" t="n">
         <v>6.0277E-005</v>
@@ -3417,32 +3605,32 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -3474,7 +3662,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.82064</v>
@@ -3507,7 +3695,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1.0038</v>
@@ -3539,7 +3727,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1.1603</v>
@@ -3571,7 +3759,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1.0578</v>
@@ -3603,7 +3791,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -3635,7 +3823,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.29998</v>
@@ -3667,7 +3855,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.33925</v>
@@ -3699,7 +3887,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.30792</v>
@@ -3731,7 +3919,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.30778</v>
